--- a/biology/Mycologie/Bankeraceae/Bankeraceae.xlsx
+++ b/biology/Mycologie/Bankeraceae/Bankeraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bankeraceae sont des champignons de l'ordre des Thelephorales[1], caractérisés par l'aspect hydné.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bankeraceae sont des champignons de l'ordre des Thelephorales, caractérisés par l'aspect hydné.
 </t>
         </is>
       </c>
@@ -511,22 +523,161 @@
           <t>Taxonomie des Bankeraceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette famille présente cinq genres :
-Le genre Bankera
-Bankera fuligineoalba
-Bankera violascens
-Le genre Boletopsis
-Boletopsis atrata
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille présente cinq genres :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bankeraceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bankeraceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le genre Bankera</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba
+Bankera violascens</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bankeraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bankeraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le genre Boletopsis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Boletopsis atrata
 Boletopsis grisea
 Boletopsis leucomelaena
 Boletopsis perplexa
-Boletopsis smithii
-Le genre Corneroporus
-Corneroporus subcitrinus
-Le genre Hydnellum
-Hydnellum aurantiacum
+Boletopsis smithii</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bankeraceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bankeraceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le genre Corneroporus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Corneroporus subcitrinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bankeraceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bankeraceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le genre Hydnellum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum
 Hydnellum auratile
 Hydnellum caeruleum
 Hydnellum chrysinum
@@ -560,9 +711,43 @@
 Hydnellum staurastrum
 Hydnellum suaveolens
 Hydnellum subzonatum
-Hydnellum tardum
-Le genre Phellodon
-Phellodon atratus
+Hydnellum tardum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bankeraceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bankeraceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le genre Phellodon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phellodon atratus
 Phellodon confluens
 Phellodon excentrimexicanus
 Phellodon fibulatus
@@ -577,9 +762,43 @@
 Phellodon secretus
 Phellodon sinclairii
 Phellodon tenuis
-Phellodon tomentosus
-le genre Sarcodon
-Sarcodon aglaosoma
+Phellodon tomentosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bankeraceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bankeraceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>le genre Sarcodon</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sarcodon aglaosoma
 Sarcodon atroviridis
 Sarcodon caliginosus
 Sarcodon calvatus
